--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89263A20-26A8-E04B-92B3-019B8489B325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F01FC0-4A90-2E49-993F-3DE4027A9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Modify the program to display a welcome message when the game starts.</t>
   </si>
@@ -34,33 +34,12 @@
     <t>Modify the game to display the pattern of each symbol (Q, T, X) next to their name when asking the user for input.</t>
   </si>
   <si>
-    <t>Implement an option for users to view a summary of the rules and how each symbol works.</t>
-  </si>
-  <si>
-    <t>Introduce a scoring multiplier. For every consecutive correct placement, the multiplier increases by 0.1x. A wrong placement resets it.</t>
-  </si>
-  <si>
     <t>Add a feature where the user can choose to shuffle the grid, but it comes at the cost of 3 moves.</t>
   </si>
   <si>
-    <t>Implement a hint feature that, when used, highlights a random cell where a symbol can be placed. This feature can be used 3 times per game.</t>
-  </si>
-  <si>
-    <t>Enhance the game to include a timer. The user has to complete the puzzle within a certain time limit.</t>
-  </si>
-  <si>
     <t>Modify the game to allow users to set a custom number of moves, but adjust the scoring accordingly.</t>
   </si>
   <si>
-    <t>Add a new game mode where the grid dynamically increases in size every 10 moves, but the number of moves doesn't increase.</t>
-  </si>
-  <si>
-    <t>Introduce power-ups. For example, a power-up that reveals all blocked cells for 5 moves.</t>
-  </si>
-  <si>
-    <t>Implement a challenge mode where certain symbols need to be placed in a specific order.</t>
-  </si>
-  <si>
     <t>Enhance the game with a replay feature, allowing users to review their moves after completing a puzzle.</t>
   </si>
   <si>
@@ -73,14 +52,23 @@
     <t>Solutions</t>
   </si>
   <si>
-    <t>Implement a pause feature, allowing players to take a break and resume the puzzle later.</t>
+    <t>done</t>
+  </si>
+  <si>
+    <t>The code doesn't properly handle non-integer input or out-of-range values. Address this issue and ensure the code handles this user input.</t>
+  </si>
+  <si>
+    <t>Change the symbol allowed method in the blocked cells class so that it actually checks if the symbol is allowed rather than just asssuming it is false each time - bro it should return false, its a blocked cell, nothing is allowed.</t>
+  </si>
+  <si>
+    <t>done on spreadsheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +90,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -152,11 +161,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -164,8 +198,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,10 +524,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -493,80 +535,74 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F01FC0-4A90-2E49-993F-3DE4027A9A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E81C3-2E58-924C-AD24-D95BC7762603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Modify the program to display a welcome message when the game starts.</t>
   </si>
@@ -513,7 +513,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,10 +599,16 @@
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95E81C3-2E58-924C-AD24-D95BC7762603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3CD4C-1A2B-EC4A-932F-F93C289062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Modify the program to display a welcome message when the game starts.</t>
   </si>
@@ -52,16 +52,22 @@
     <t>Solutions</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>The code doesn't properly handle non-integer input or out-of-range values. Address this issue and ensure the code handles this user input.</t>
   </si>
   <si>
     <t>Change the symbol allowed method in the blocked cells class so that it actually checks if the symbol is allowed rather than just asssuming it is false each time - bro it should return false, its a blocked cell, nothing is allowed.</t>
   </si>
   <si>
-    <t>done on spreadsheet</t>
+    <t>zayd symbol 1</t>
+  </si>
+  <si>
+    <t>zayd symbol 2</t>
+  </si>
+  <si>
+    <t> zayd symbol 5</t>
+  </si>
+  <si>
+    <t>zayd symbol 6</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,12 +139,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6E0B4"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,12 +203,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -198,13 +229,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -510,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,83 +567,71 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>10</v>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" display="https://github.com/ZaydBawany/Pre-Release-Materials/blob/main/symbol22.py" xr:uid="{CF1EAF0E-9DC7-8C43-8332-521B128E5FD5}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://github.com/ZaydBawany/Pre-Release-Materials/blob/main/symbol23.py" xr:uid="{3966F315-11D9-1C46-AD9E-D2EE762377E6}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{5CBD31DA-82BA-2A42-B005-FFE82283F06C}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{9F087097-709A-D247-9783-1F48AEE4F6B2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E3CD4C-1A2B-EC4A-932F-F93C289062FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D96D03-56AC-2442-88CB-123B3D4DFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Modify the program to display a welcome message when the game starts.</t>
   </si>
@@ -68,13 +68,19 @@
   </si>
   <si>
     <t>zayd symbol 6</t>
+  </si>
+  <si>
+    <t>Implement a feature where, after completing a puzzle, the user is given an option to save the current state of the grid to a file</t>
+  </si>
+  <si>
+    <t>zayd symbol 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -221,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -237,6 +251,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -545,7 +560,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -579,6 +594,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
@@ -631,6 +654,7 @@
     <hyperlink ref="B7" r:id="rId2" display="https://github.com/ZaydBawany/Pre-Release-Materials/blob/main/symbol23.py" xr:uid="{3966F315-11D9-1C46-AD9E-D2EE762377E6}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{5CBD31DA-82BA-2A42-B005-FFE82283F06C}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{9F087097-709A-D247-9783-1F48AEE4F6B2}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{CDEE3FCB-CB4E-F149-830B-BA47852C7B17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D96D03-56AC-2442-88CB-123B3D4DFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8714537C-8448-1044-A108-B961F05FD24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Modify the program to display a welcome message when the game starts.</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Add a feature where the user can choose to shuffle the grid, but it comes at the cost of 3 moves.</t>
   </si>
   <si>
-    <t>Modify the game to allow users to set a custom number of moves, but adjust the scoring accordingly.</t>
-  </si>
-  <si>
     <t>Enhance the game with a replay feature, allowing users to review their moves after completing a puzzle.</t>
   </si>
   <si>
@@ -74,6 +71,15 @@
   </si>
   <si>
     <t>zayd symbol 3</t>
+  </si>
+  <si>
+    <t>zayd symbol 5</t>
+  </si>
+  <si>
+    <t>zayd symbol 7</t>
+  </si>
+  <si>
+    <t>When a player is stuck and doesn't know where to place a symbol, they can use the "Hint" option. However, this comes at a cost of 5 moves.</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -244,6 +250,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -560,21 +567,21 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="105" customWidth="1"/>
+    <col min="1" max="1" width="104.6640625" customWidth="1"/>
     <col min="2" max="2" width="75.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -582,65 +589,71 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>12</v>
+      <c r="B2" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>13</v>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -655,6 +668,8 @@
     <hyperlink ref="B2" r:id="rId3" xr:uid="{5CBD31DA-82BA-2A42-B005-FFE82283F06C}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{9F087097-709A-D247-9783-1F48AEE4F6B2}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{CDEE3FCB-CB4E-F149-830B-BA47852C7B17}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{9EB475DB-A80B-544E-827F-D76829A3F1B2}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{004C0C85-4D3D-C642-A0C7-A3A4F53C4D82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8714537C-8448-1044-A108-B961F05FD24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F6282-5012-404A-AA65-9729B05E5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Modify the program to display a welcome message when the game starts.</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>When a player is stuck and doesn't know where to place a symbol, they can use the "Hint" option. However, this comes at a cost of 5 moves.</t>
+  </si>
+  <si>
+    <t>zayd symbol 8</t>
   </si>
 </sst>
 </file>
@@ -241,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -250,7 +253,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -567,7 +569,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -589,7 +591,7 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -597,7 +599,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
@@ -605,7 +607,7 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -613,12 +615,12 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -626,7 +628,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -637,13 +639,16 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,6 +675,7 @@
     <hyperlink ref="B4" r:id="rId5" xr:uid="{CDEE3FCB-CB4E-F149-830B-BA47852C7B17}"/>
     <hyperlink ref="B5" r:id="rId6" xr:uid="{9EB475DB-A80B-544E-827F-D76829A3F1B2}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{004C0C85-4D3D-C642-A0C7-A3A4F53C4D82}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{4D6C4EC0-98F2-C649-9966-F2C6C1829325}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaydbawany/Desktop/Sixth Form/CS/Pre-Release Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F6282-5012-404A-AA65-9729B05E5FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB8E840-B3C2-1742-8C18-F5194E2E5178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>Modify the program to display a welcome message when the game starts.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Implement a feature to show the total number of blocked cells on the grid at the start of the game.</t>
   </si>
   <si>
-    <t>Add a counter that shows how many of each symbol (Q, T, X) have been placed on the grid.</t>
-  </si>
-  <si>
     <t>Modify the game to display the pattern of each symbol (Q, T, X) next to their name when asking the user for input.</t>
   </si>
   <si>
@@ -83,6 +77,15 @@
   </si>
   <si>
     <t>zayd symbol 8</t>
+  </si>
+  <si>
+    <t>zayd symbol 9</t>
+  </si>
+  <si>
+    <t>Allow the user to remove a symbol from a cell, if this is done then increase the turns left by 1</t>
+  </si>
+  <si>
+    <t>zayd symbol 10</t>
   </si>
 </sst>
 </file>
@@ -244,7 +247,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -261,6 +264,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,7 +573,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,102 +584,108 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A18" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://github.com/ZaydBawany/Pre-Release-Materials/blob/main/symbol22.py" xr:uid="{CF1EAF0E-9DC7-8C43-8332-521B128E5FD5}"/>
     <hyperlink ref="B7" r:id="rId2" display="https://github.com/ZaydBawany/Pre-Release-Materials/blob/main/symbol23.py" xr:uid="{3966F315-11D9-1C46-AD9E-D2EE762377E6}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{5CBD31DA-82BA-2A42-B005-FFE82283F06C}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{9F087097-709A-D247-9783-1F48AEE4F6B2}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{CDEE3FCB-CB4E-F149-830B-BA47852C7B17}"/>
-    <hyperlink ref="B5" r:id="rId6" xr:uid="{9EB475DB-A80B-544E-827F-D76829A3F1B2}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{004C0C85-4D3D-C642-A0C7-A3A4F53C4D82}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{4D6C4EC0-98F2-C649-9966-F2C6C1829325}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{9F087097-709A-D247-9783-1F48AEE4F6B2}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{CDEE3FCB-CB4E-F149-830B-BA47852C7B17}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{9EB475DB-A80B-544E-827F-D76829A3F1B2}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{004C0C85-4D3D-C642-A0C7-A3A4F53C4D82}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{4D6C4EC0-98F2-C649-9966-F2C6C1829325}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{BD4512B4-4558-FD4B-A88E-0EFC631EC223}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{B1F3908B-41EA-4748-834E-873047B5913D}"/>
+    <hyperlink ref="B2" r:id="rId10" xr:uid="{2699AAB5-7794-9840-88C4-A81412299FB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
